--- a/Collection_DataMarts_Final_29-03-2025.xlsx
+++ b/Collection_DataMarts_Final_29-03-2025.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="3810" windowHeight="1670" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="3810" windowHeight="1670" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Deliquency Mart" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,9 @@
     <sheet name="DP Mart" sheetId="8" r:id="rId7"/>
     <sheet name="Portfolio Delinquency View" sheetId="4" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'DP Mart'!$A$1:$F$76</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="443">
   <si>
     <t>Columns</t>
   </si>
@@ -1309,6 +1312,88 @@
   </si>
   <si>
     <t xml:space="preserve">NPA_STAGEID_NEW </t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Need to write</t>
+  </si>
+  <si>
+    <t>Partially writtwn</t>
+  </si>
+  <si>
+    <t>Loan_ID</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Scheme</t>
+  </si>
+  <si>
+    <t>Father_Husband_Name</t>
+  </si>
+  <si>
+    <t>Column Name</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Columns which are changing -- Fix from Aavas</t>
+  </si>
+  <si>
+    <t>Activation Flag</t>
+  </si>
+  <si>
+    <t>RowHash me kitne column can go</t>
+  </si>
+  <si>
+    <t>Measurable Attributes can go to separate table</t>
+  </si>
+  <si>
+    <t>SCD</t>
+  </si>
+  <si>
+    <t>Coll_Duelist _Fact - MerasubleDerive columns, 
+Primary Key SCD Tracking attribute(Start Date, End Date and Activation Flag, Deletion Flag also</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coll_Duelist _Dimension -  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DP Mart </t>
+  </si>
+  <si>
+    <t>DP_Dimension</t>
+  </si>
+  <si>
+    <t>DP_Fact</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>YEs</t>
+  </si>
+  <si>
+    <t>END_DATE</t>
+  </si>
+  <si>
+    <t>Extra</t>
   </si>
 </sst>
 </file>
@@ -1395,7 +1480,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1429,11 +1514,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1504,6 +1602,12 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1516,11 +1620,32 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1798,7 +1923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
@@ -3130,8 +3255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3336,270 +3461,532 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F41" sqref="F3:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="34.6328125" customWidth="1"/>
     <col min="2" max="2" width="35.54296875" customWidth="1"/>
+    <col min="5" max="5" width="38.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>246</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
         <v>247</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E2" t="s">
+        <v>419</v>
+      </c>
+      <c r="F2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
         <v>248</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="28">
+        <v>41097</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="23" t="s">
         <v>249</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E4" t="s">
+        <v>331</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
         <v>250</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="23" t="s">
         <v>251</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="23" t="s">
         <v>252</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7">
+        <v>6055</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
         <v>253</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="24" t="s">
         <v>254</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
         <v>255</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
         <v>256</v>
       </c>
       <c r="B11" s="23" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
         <v>257</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="23" t="s">
         <v>258</v>
       </c>
       <c r="B13" s="23" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
         <v>259</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E14" t="s">
+        <v>423</v>
+      </c>
+      <c r="F14" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="24" t="s">
         <v>260</v>
       </c>
       <c r="B15" s="23" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="28">
+        <v>41167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
         <v>261</v>
       </c>
       <c r="B16" s="23" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="28">
+        <v>42597</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="23" t="s">
         <v>262</v>
       </c>
       <c r="B17" s="23" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
         <v>263</v>
       </c>
       <c r="B18" s="23" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="28">
+        <v>43483</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="23" t="s">
         <v>264</v>
       </c>
       <c r="B19" s="23" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>20.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="23" t="s">
         <v>265</v>
       </c>
       <c r="B20" s="23" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="25" t="s">
         <v>266</v>
       </c>
       <c r="B21" s="23" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="23" t="s">
         <v>267</v>
       </c>
       <c r="B22" s="23" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E22" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="38">
+        <v>121200300006816</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="23" t="s">
         <v>268</v>
       </c>
       <c r="B23" s="23" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="23" t="s">
         <v>269</v>
       </c>
       <c r="B24" s="23" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="23" t="s">
         <v>270</v>
       </c>
       <c r="B25" s="23" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E25" t="s">
+        <v>338</v>
+      </c>
+      <c r="F25">
+        <v>1299200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="23" t="s">
         <v>271</v>
       </c>
       <c r="B26" s="23" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="23" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27">
+        <v>44426</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="23" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28">
+        <v>7.72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="24" t="s">
         <v>274</v>
       </c>
       <c r="B29" s="23" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="24" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="24" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31">
+        <v>43722</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="24" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="24" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E33" t="s">
+        <v>421</v>
+      </c>
+      <c r="F33" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="24" t="s">
         <v>279</v>
       </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E35" t="s">
+        <v>422</v>
+      </c>
+      <c r="F35" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E36" t="s">
+        <v>420</v>
+      </c>
+      <c r="F36" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E38" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38">
+        <v>46426</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E40" t="s">
+        <v>347</v>
+      </c>
+      <c r="F40">
+        <v>43722</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41">
+        <v>40.28</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="E3:F41">
+    <sortCondition ref="E1"/>
+  </sortState>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3612,11 +3999,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C32" sqref="C32"/>
+      <selection pane="topRight" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3624,13 +4011,13 @@
     <col min="1" max="1" width="28.81640625" customWidth="1"/>
     <col min="2" max="3" width="29.81640625" customWidth="1"/>
     <col min="4" max="4" width="21.90625" customWidth="1"/>
-    <col min="5" max="5" width="23.7265625" customWidth="1"/>
-    <col min="6" max="6" width="29.81640625" customWidth="1"/>
-    <col min="7" max="7" width="21.6328125" customWidth="1"/>
-    <col min="8" max="8" width="23.81640625" customWidth="1"/>
+    <col min="5" max="7" width="23.7265625" customWidth="1"/>
+    <col min="8" max="8" width="29.81640625" customWidth="1"/>
+    <col min="9" max="9" width="21.6328125" customWidth="1"/>
+    <col min="10" max="10" width="23.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>328</v>
       </c>
@@ -3647,1046 +4034,1327 @@
         <v>356</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="36" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="32">
         <v>41097</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="32">
         <v>41097</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="33">
         <v>41097</v>
       </c>
       <c r="F2" s="30">
+        <v>41097</v>
+      </c>
+      <c r="G2" s="33" t="b">
+        <f>E2=F2</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="32">
         <v>41363</v>
       </c>
-      <c r="G2" s="30">
+      <c r="I2" s="32">
         <v>41363</v>
       </c>
-      <c r="H2" s="31">
+      <c r="J2" s="33">
         <v>41363</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="34" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="36" t="s">
         <v>331</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="34">
         <v>0</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="34">
         <v>0</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="31">
+        <v>0</v>
+      </c>
+      <c r="G3" s="33" t="b">
+        <f t="shared" ref="G3:G41" si="0">E3=F3</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="34">
         <v>50894</v>
       </c>
-      <c r="G3" s="32">
+      <c r="I3" s="34">
         <v>50894</v>
       </c>
-      <c r="H3" s="1">
+      <c r="J3" s="1">
         <v>50894</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="37" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="34">
         <v>0</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="34">
         <v>0</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="31">
         <v>0</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H4" s="34">
         <v>0</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="34">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="35" t="s">
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="37" t="s">
         <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="34">
         <v>0</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="34">
         <v>0</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="31">
         <v>0</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H5" s="34">
         <v>0</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="34">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="35" t="s">
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="37" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="34">
         <v>6055</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="34">
         <v>6055</v>
       </c>
       <c r="E6" s="1">
         <v>6055</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="31">
+        <v>6055</v>
+      </c>
+      <c r="G6" s="33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H6" s="34">
         <v>724</v>
       </c>
-      <c r="G6" s="32">
+      <c r="I6" s="34">
         <v>724</v>
       </c>
-      <c r="H6" s="1">
+      <c r="J6" s="1">
         <v>724</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="35" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="37" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="34" t="s">
         <v>357</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="34" t="s">
         <v>357</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="31" t="s">
         <v>357</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H7" s="34" t="s">
         <v>357</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="34" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="35" t="s">
+      <c r="J7" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="37" t="s">
         <v>334</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="34" t="s">
         <v>365</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="34" t="s">
         <v>365</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="31" t="s">
+        <v>365</v>
+      </c>
+      <c r="G8" s="33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H8" s="34" t="s">
         <v>366</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="I8" s="34" t="s">
         <v>366</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="35" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="37" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="34" t="s">
         <v>358</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="34" t="s">
         <v>358</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="31" t="s">
         <v>358</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="34" t="s">
         <v>358</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="34" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J9" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="34">
         <v>3333</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="34">
         <v>3334</v>
       </c>
       <c r="E10" s="1">
         <v>3335</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="31">
+        <v>3338</v>
+      </c>
+      <c r="G10" s="33" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="34">
         <v>269</v>
       </c>
-      <c r="G10" s="32">
+      <c r="I10" s="34">
         <v>270</v>
       </c>
-      <c r="H10" s="1">
+      <c r="J10" s="1">
         <v>271</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="35" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="37" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="34" t="s">
         <v>359</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="34" t="s">
         <v>359</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="31" t="s">
         <v>359</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H11" s="34" t="s">
         <v>359</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="34" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="35" t="s">
+      <c r="J11" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="37" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="34" t="s">
         <v>360</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="31" t="s">
         <v>360</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H12" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="34" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="35" t="s">
+      <c r="J12" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="37" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="32">
         <v>41167</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="32">
         <v>41167</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="33">
         <v>41167</v>
       </c>
       <c r="F13" s="30">
+        <v>41167</v>
+      </c>
+      <c r="G13" s="33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H13" s="32">
         <v>41399</v>
       </c>
-      <c r="G13" s="30">
+      <c r="I13" s="32">
         <v>41399</v>
       </c>
-      <c r="H13" s="31">
+      <c r="J13" s="33">
         <v>41399</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="35" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="37" t="s">
         <v>335</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="34" t="s">
         <v>367</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="34" t="s">
         <v>367</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="35" t="s">
+      <c r="F14" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="G14" s="33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="37" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="32">
         <v>42597</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="32">
         <v>42597</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="33">
         <v>42597</v>
       </c>
       <c r="F15" s="30">
+        <v>42597</v>
+      </c>
+      <c r="G15" s="33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H15" s="32">
         <v>45448</v>
       </c>
-      <c r="G15" s="30">
+      <c r="I15" s="32">
         <v>45448</v>
       </c>
-      <c r="H15" s="31">
+      <c r="J15" s="33">
         <v>45448</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="35" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="37" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="34">
         <v>0</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="34">
         <v>0</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="31">
+        <v>0</v>
+      </c>
+      <c r="G16" s="33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H16" s="34">
         <v>500</v>
       </c>
-      <c r="G16" s="32">
+      <c r="I16" s="34">
         <v>500</v>
       </c>
-      <c r="H16" s="1">
+      <c r="J16" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="35" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="37" t="s">
         <v>336</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="32">
         <v>43483</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="32">
         <v>43483</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="33">
         <v>43483</v>
       </c>
       <c r="F17" s="30">
+        <v>43483</v>
+      </c>
+      <c r="G17" s="33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H17" s="32">
         <v>45583</v>
       </c>
-      <c r="G17" s="30">
+      <c r="I17" s="32">
         <v>45583</v>
       </c>
-      <c r="H17" s="31">
+      <c r="J17" s="33">
         <v>45583</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="35" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="37" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C18" s="32">
+      <c r="C18" s="34">
         <v>200000</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="34">
         <v>200000</v>
       </c>
       <c r="E18" s="1">
         <v>200000</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F18" s="31">
         <v>200000</v>
       </c>
-      <c r="G18" s="32">
+      <c r="G18" s="33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H18" s="34">
         <v>200000</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="34">
         <v>200000</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="35" t="s">
+      <c r="J18" s="1">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="37" t="s">
         <v>337</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="34">
         <v>20.25</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="34">
         <v>20.25</v>
       </c>
       <c r="E19" s="1">
         <v>20.25</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="31">
+        <v>20.25</v>
+      </c>
+      <c r="G19" s="33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H19" s="34">
         <v>22.96</v>
       </c>
-      <c r="G19" s="32">
+      <c r="I19" s="34">
         <v>22.96</v>
       </c>
-      <c r="H19" s="1">
+      <c r="J19" s="1">
         <v>22.96</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="35" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="37" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="34" t="s">
         <v>361</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="34" t="s">
         <v>361</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="F20" s="31" t="s">
         <v>361</v>
       </c>
-      <c r="G20" s="32" t="s">
+      <c r="G20" s="33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H20" s="34" t="s">
         <v>361</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" s="34" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="35" t="s">
+      <c r="J20" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="37" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="34" t="s">
         <v>362</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="34" t="s">
         <v>362</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="31" t="s">
         <v>362</v>
       </c>
-      <c r="G21" s="32" t="s">
+      <c r="G21" s="33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H21" s="34" t="s">
         <v>362</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="34" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="35" t="s">
+      <c r="J21" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="37" t="s">
         <v>338</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C22" s="34">
         <v>1299200</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D22" s="34">
         <v>1299200</v>
       </c>
       <c r="E22" s="1">
         <v>1299200</v>
       </c>
-      <c r="F22" s="32">
+      <c r="F22" s="31">
+        <v>1299200</v>
+      </c>
+      <c r="G22" s="33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H22" s="34">
         <v>191224</v>
       </c>
-      <c r="G22" s="32">
+      <c r="I22" s="34">
         <v>191224</v>
       </c>
-      <c r="H22" s="1">
+      <c r="J22" s="1">
         <v>191224</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="35" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="37" t="s">
         <v>339</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" s="34" t="s">
         <v>368</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="F23" s="32" t="s">
+      <c r="F23" s="31" t="s">
         <v>368</v>
       </c>
-      <c r="G23" s="32" t="s">
+      <c r="G23" s="33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H23" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="I23" s="34" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="35" t="s">
+      <c r="J23" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="37" t="s">
         <v>340</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="34" t="s">
         <v>369</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="34" t="s">
         <v>369</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="F24" s="32" t="s">
+      <c r="G24" s="33" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="34" t="s">
         <v>370</v>
       </c>
-      <c r="G24" s="32" t="s">
+      <c r="I24" s="34" t="s">
         <v>370</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C25" s="33">
+      <c r="C25" s="35">
         <v>121200300006816</v>
       </c>
-      <c r="D25" s="33">
+      <c r="D25" s="35">
         <v>121200300006816</v>
       </c>
-      <c r="E25" s="33">
+      <c r="E25" s="35">
         <v>121200300006816</v>
       </c>
-      <c r="F25" s="33">
+      <c r="F25" s="39">
+        <v>121200300006816</v>
+      </c>
+      <c r="G25" s="33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H25" s="35">
         <v>121200300032887</v>
       </c>
-      <c r="G25" s="33">
+      <c r="I25" s="35">
         <v>121200300032887</v>
       </c>
-      <c r="H25" s="33">
+      <c r="J25" s="35">
         <v>121200300032887</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="35" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="37" t="s">
         <v>341</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C26" s="32">
+      <c r="C26" s="34">
         <v>0</v>
       </c>
-      <c r="D26" s="32">
+      <c r="D26" s="34">
         <v>0</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
       </c>
-      <c r="F26" s="32">
+      <c r="F26" s="31">
+        <v>0</v>
+      </c>
+      <c r="G26" s="33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H26" s="34">
         <v>3</v>
       </c>
-      <c r="G26" s="32">
+      <c r="I26" s="34">
         <v>3</v>
       </c>
-      <c r="H26" s="1">
+      <c r="J26" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="35" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="37" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C27" s="32">
+      <c r="C27" s="34">
         <v>44426</v>
       </c>
-      <c r="D27" s="32">
+      <c r="D27" s="34">
         <v>44426</v>
       </c>
       <c r="E27" s="1">
         <v>44426</v>
       </c>
-      <c r="F27" s="32">
+      <c r="F27" s="31">
+        <v>44426</v>
+      </c>
+      <c r="G27" s="33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H27" s="34">
         <v>27019</v>
       </c>
-      <c r="G27" s="32">
+      <c r="I27" s="34">
         <v>27019</v>
       </c>
-      <c r="H27" s="1">
+      <c r="J27" s="1">
         <v>27019</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="35" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="37" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C28" s="32">
+      <c r="C28" s="34">
         <v>2704</v>
       </c>
-      <c r="D28" s="32">
+      <c r="D28" s="34">
         <v>2704</v>
       </c>
       <c r="E28" s="1">
         <v>2704</v>
       </c>
-      <c r="F28" s="32">
+      <c r="F28" s="31">
+        <v>2704</v>
+      </c>
+      <c r="G28" s="33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H28" s="34">
         <v>3483</v>
       </c>
-      <c r="G28" s="32">
+      <c r="I28" s="34">
         <v>3483</v>
       </c>
-      <c r="H28" s="1">
+      <c r="J28" s="1">
         <v>3483</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="35" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="37" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C29" s="32">
+      <c r="C29" s="34">
         <v>43722</v>
       </c>
-      <c r="D29" s="32">
+      <c r="D29" s="34">
         <v>43722</v>
       </c>
       <c r="E29" s="1">
         <v>43722</v>
       </c>
-      <c r="F29" s="32">
+      <c r="F29" s="31">
+        <v>43722</v>
+      </c>
+      <c r="G29" s="33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H29" s="34">
         <v>711</v>
       </c>
-      <c r="G29" s="32">
+      <c r="I29" s="34">
         <v>711</v>
       </c>
-      <c r="H29" s="1">
+      <c r="J29" s="1">
         <v>711</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="35" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="37" t="s">
         <v>342</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C30" s="32">
+      <c r="C30" s="34">
         <v>7.72</v>
       </c>
-      <c r="D30" s="32">
+      <c r="D30" s="34">
         <v>7.72</v>
       </c>
       <c r="E30" s="1">
         <v>7.72</v>
       </c>
-      <c r="F30" s="32">
+      <c r="F30" s="31">
+        <v>7.72</v>
+      </c>
+      <c r="G30" s="33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H30" s="34">
         <v>0.89</v>
       </c>
-      <c r="G30" s="32">
+      <c r="I30" s="34">
         <v>0.89</v>
       </c>
-      <c r="H30" s="1">
+      <c r="J30" s="1">
         <v>0.89</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="35" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="37" t="s">
         <v>343</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C31" s="32">
+      <c r="C31" s="34">
         <v>0</v>
       </c>
-      <c r="D31" s="32">
+      <c r="D31" s="34">
         <v>0</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
       </c>
-      <c r="F31" s="32">
+      <c r="F31" s="40">
         <v>0</v>
       </c>
-      <c r="G31" s="32">
+      <c r="G31" s="33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H31" s="34">
         <v>0</v>
       </c>
-      <c r="H31" s="1">
+      <c r="I31" s="34">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="35" t="s">
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="37" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C32" s="32">
+      <c r="C32" s="34">
         <v>0</v>
       </c>
-      <c r="D32" s="32">
+      <c r="D32" s="34">
         <v>0</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
       </c>
-      <c r="F32" s="32">
+      <c r="F32" s="31">
         <v>0</v>
       </c>
-      <c r="G32" s="32">
+      <c r="G32" s="33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H32" s="34">
         <v>0</v>
       </c>
-      <c r="H32" s="1">
+      <c r="I32" s="34">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="35" t="s">
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="37" t="s">
         <v>344</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="34" t="s">
         <v>371</v>
       </c>
-      <c r="D33" s="32" t="s">
+      <c r="D33" s="34" t="s">
         <v>371</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="F33" s="32" t="s">
+      <c r="F33" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="G33" s="32" t="s">
+      <c r="G33" s="33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H33" s="34" t="s">
         <v>371</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="I33" s="34" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="35" t="s">
+      <c r="J33" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" s="37" t="s">
         <v>345</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="34" t="s">
         <v>363</v>
       </c>
-      <c r="D34" s="32" t="s">
+      <c r="D34" s="34" t="s">
         <v>363</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="F34" s="32" t="s">
+      <c r="F34" s="31" t="s">
         <v>363</v>
       </c>
-      <c r="G34" s="32" t="s">
+      <c r="G34" s="33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H34" s="34" t="s">
         <v>363</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="I34" s="34" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="35" t="s">
+      <c r="J34" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" s="37" t="s">
         <v>346</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="34" t="s">
         <v>364</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="D35" s="34" t="s">
         <v>364</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="F35" s="32" t="s">
+      <c r="F35" s="31" t="s">
         <v>364</v>
       </c>
-      <c r="G35" s="32" t="s">
+      <c r="G35" s="33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H35" s="34" t="s">
         <v>364</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="I35" s="34" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="35" t="s">
+      <c r="J35" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" s="37" t="s">
         <v>347</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C36" s="32">
+      <c r="C36" s="34">
         <v>43722</v>
       </c>
-      <c r="D36" s="32">
+      <c r="D36" s="34">
         <v>43722</v>
       </c>
       <c r="E36" s="1">
         <v>43722</v>
       </c>
-      <c r="F36" s="32">
+      <c r="F36" s="31">
+        <v>43722</v>
+      </c>
+      <c r="G36" s="33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H36" s="34">
         <v>711</v>
       </c>
-      <c r="G36" s="32">
+      <c r="I36" s="34">
         <v>711</v>
       </c>
-      <c r="H36" s="1">
+      <c r="J36" s="1">
         <v>711</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="35" t="s">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" s="37" t="s">
         <v>348</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C37" s="32">
+      <c r="C37" s="34">
         <v>48</v>
       </c>
-      <c r="D37" s="32">
+      <c r="D37" s="34">
         <v>48</v>
       </c>
       <c r="E37" s="1">
         <v>48</v>
       </c>
-      <c r="F37" s="32">
+      <c r="F37" s="31">
+        <v>48</v>
+      </c>
+      <c r="G37" s="33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H37" s="34">
         <v>125</v>
       </c>
-      <c r="G37" s="32">
+      <c r="I37" s="34">
         <v>125</v>
       </c>
-      <c r="H37" s="1">
+      <c r="J37" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="35" t="s">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" s="37" t="s">
         <v>349</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C38" s="32">
+      <c r="C38" s="34">
         <v>46426</v>
       </c>
-      <c r="D38" s="32">
+      <c r="D38" s="34">
         <v>46426</v>
       </c>
       <c r="E38" s="1">
         <v>46426</v>
       </c>
-      <c r="F38" s="32">
+      <c r="F38" s="31">
+        <v>46426</v>
+      </c>
+      <c r="G38" s="33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H38" s="34">
         <v>4194</v>
       </c>
-      <c r="G38" s="32">
+      <c r="I38" s="34">
         <v>4194</v>
       </c>
-      <c r="H38" s="1">
+      <c r="J38" s="1">
         <v>4194</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="35" t="s">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" s="37" t="s">
         <v>350</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C39" s="32">
+      <c r="C39" s="34">
         <v>48</v>
       </c>
-      <c r="D39" s="32">
+      <c r="D39" s="34">
         <v>48</v>
       </c>
       <c r="E39" s="1">
         <v>48</v>
       </c>
-      <c r="F39" s="32">
+      <c r="F39" s="31">
+        <v>48</v>
+      </c>
+      <c r="G39" s="33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H39" s="34">
         <v>125</v>
       </c>
-      <c r="G39" s="32">
+      <c r="I39" s="34">
         <v>125</v>
       </c>
-      <c r="H39" s="1">
+      <c r="J39" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="35" t="s">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" s="37" t="s">
         <v>351</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C40" s="32">
+      <c r="C40" s="34">
         <v>40.28</v>
       </c>
-      <c r="D40" s="32">
+      <c r="D40" s="34">
         <v>40.28</v>
       </c>
       <c r="E40" s="1">
         <v>40.28</v>
       </c>
-      <c r="F40" s="32">
+      <c r="F40" s="31">
+        <v>40.28</v>
+      </c>
+      <c r="G40" s="33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H40" s="34">
         <v>121.11</v>
       </c>
-      <c r="G40" s="32">
+      <c r="I40" s="34">
         <v>121.11</v>
       </c>
-      <c r="H40" s="1">
+      <c r="J40" s="1">
         <v>121.11</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>305</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C41" s="30">
+      <c r="C41" s="32">
         <v>45717</v>
       </c>
-      <c r="D41" s="30">
+      <c r="D41" s="32">
         <v>45718</v>
       </c>
-      <c r="E41" s="31">
+      <c r="E41" s="33">
         <v>45719</v>
       </c>
-      <c r="F41" s="30">
+      <c r="F41" s="33">
+        <v>45722</v>
+      </c>
+      <c r="G41" s="33" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="32">
         <v>45717</v>
       </c>
-      <c r="G41" s="30">
+      <c r="I41" s="32">
         <v>45718</v>
       </c>
-      <c r="H41" s="31">
+      <c r="J41" s="33">
         <v>45719</v>
       </c>
     </row>
@@ -4703,553 +5371,983 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B76"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>373</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>435</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>436</v>
+      </c>
+      <c r="F1" s="41"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="35" t="s">
-        <v>339</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="35" t="s">
-        <v>345</v>
-      </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>438</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>438</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>437</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>378</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>438</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>377</v>
+        <v>341</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>328</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="35" t="s">
-        <v>380</v>
-      </c>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C7" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>341</v>
+        <v>386</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="35" t="s">
-        <v>381</v>
-      </c>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="35" t="s">
-        <v>382</v>
-      </c>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>378</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="35" t="s">
-        <v>384</v>
-      </c>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C12" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>385</v>
+        <v>44</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C15" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C16" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>387</v>
+        <v>45</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="35" t="s">
-        <v>349</v>
-      </c>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="35" t="s">
-        <v>338</v>
-      </c>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="35" t="s">
-        <v>331</v>
-      </c>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+        <v>378</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C23" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C24" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>347</v>
+        <v>393</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C25" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>438</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>394</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C26" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>439</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="42" t="s">
+        <v>339</v>
+      </c>
+      <c r="B39" s="43"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="28">
+        <v>45718</v>
+      </c>
+      <c r="E39">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="37" t="s">
+        <v>345</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="28">
+        <v>45719</v>
+      </c>
+      <c r="E40">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="28">
+        <v>45723</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="37" t="s">
+        <v>381</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="28">
+        <v>45725</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="37" t="s">
+        <v>343</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="37" t="s">
+        <v>349</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="37" t="s">
+        <v>338</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="C51" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="C52" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="42" t="s">
+        <v>395</v>
+      </c>
+      <c r="B53" s="44"/>
+      <c r="C53" s="44"/>
+    </row>
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="37" t="s">
+        <v>397</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="C60" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="44"/>
+      <c r="C61" s="44"/>
+    </row>
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="37" t="s">
+        <v>399</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="37" t="s">
+        <v>402</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="37" t="s">
+        <v>408</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="37" t="s">
+        <v>410</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="37" t="s">
+        <v>411</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="37" t="s">
+        <v>412</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="37" t="s">
+        <v>413</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="37" t="s">
+        <v>414</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="37" t="s">
+        <v>415</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B80" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="35" t="s">
-        <v>395</v>
-      </c>
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="35" t="s">
-        <v>396</v>
-      </c>
-      <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="35" t="s">
-        <v>397</v>
-      </c>
-      <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="35" t="s">
-        <v>399</v>
-      </c>
-      <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="B54" s="1"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B55" s="1"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B56" s="1"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" s="1"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="35" t="s">
-        <v>402</v>
-      </c>
-      <c r="B61" s="1"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="35" t="s">
-        <v>408</v>
-      </c>
-      <c r="B67" s="1"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B68" s="1"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="35" t="s">
-        <v>410</v>
-      </c>
-      <c r="B71" s="1"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="35" t="s">
-        <v>411</v>
-      </c>
-      <c r="B72" s="1"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="35" t="s">
-        <v>412</v>
-      </c>
-      <c r="B73" s="1"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="B74" s="1"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="35" t="s">
-        <v>414</v>
-      </c>
-      <c r="B75" s="1"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="35" t="s">
-        <v>415</v>
-      </c>
-      <c r="B76" s="1"/>
+      <c r="B82" t="s">
+        <v>433</v>
+      </c>
+      <c r="C82" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B83" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C83" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B86" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B87" t="s">
+        <v>429</v>
+      </c>
+      <c r="C87" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B88" t="s">
+        <v>428</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F76">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <sortState ref="A2:F76">
+      <sortCondition sortBy="cellColor" ref="A1" dxfId="0"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -5260,7 +6358,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
